--- a/sport/output/38.xlsx
+++ b/sport/output/38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -31,109 +31,100 @@
     <t>location</t>
   </si>
   <si>
-    <t>504917</t>
-  </si>
-  <si>
-    <t>504922</t>
-  </si>
-  <si>
-    <t>504923</t>
-  </si>
-  <si>
-    <t>504651</t>
-  </si>
-  <si>
-    <t>504654</t>
-  </si>
-  <si>
-    <t>504305</t>
-  </si>
-  <si>
-    <t>504297</t>
-  </si>
-  <si>
-    <t>504301</t>
-  </si>
-  <si>
-    <t>504292</t>
-  </si>
-  <si>
-    <t>504295</t>
-  </si>
-  <si>
-    <t>504309</t>
-  </si>
-  <si>
-    <t>504314</t>
-  </si>
-  <si>
-    <t>2025-02-28T13:00:00</t>
-  </si>
-  <si>
-    <t>2025-02-28T15:00:00</t>
-  </si>
-  <si>
-    <t>2025-02-28T09:00:00</t>
-  </si>
-  <si>
-    <t>2025-03-06T09:00:00</t>
-  </si>
-  <si>
-    <t>2025-03-06T14:00:00</t>
-  </si>
-  <si>
-    <t>2025-03-08T09:00:00</t>
-  </si>
-  <si>
-    <t>2025-03-08T14:00:00</t>
-  </si>
-  <si>
-    <t>2025-03-08T19:00:00</t>
-  </si>
-  <si>
-    <t>2025-03-14T08:00:00</t>
-  </si>
-  <si>
-    <t>2025-03-14T13:00:00</t>
-  </si>
-  <si>
-    <t>IBSF sanctioned race</t>
-  </si>
-  <si>
-    <t>Europe Cup</t>
-  </si>
-  <si>
-    <t>World Championships</t>
+    <t>505221</t>
+  </si>
+  <si>
+    <t>505223</t>
+  </si>
+  <si>
+    <t>504945</t>
+  </si>
+  <si>
+    <t>504953</t>
+  </si>
+  <si>
+    <t>505236</t>
+  </si>
+  <si>
+    <t>505238</t>
+  </si>
+  <si>
+    <t>505233</t>
+  </si>
+  <si>
+    <t>505234</t>
+  </si>
+  <si>
+    <t>504952</t>
+  </si>
+  <si>
+    <t>505228</t>
+  </si>
+  <si>
+    <t>505219</t>
+  </si>
+  <si>
+    <t>504954</t>
+  </si>
+  <si>
+    <t>504942</t>
+  </si>
+  <si>
+    <t>505231</t>
+  </si>
+  <si>
+    <t>505235</t>
+  </si>
+  <si>
+    <t>2025-11-20T14:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-21T09:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-21T13:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-21T18:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-21T14:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-22T09:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-22T13:00:00</t>
+  </si>
+  <si>
+    <t>North American Cup</t>
+  </si>
+  <si>
+    <t>IBSF World Cup</t>
+  </si>
+  <si>
+    <t>Pan American Championships</t>
+  </si>
+  <si>
+    <t>2-man Bobsleigh</t>
+  </si>
+  <si>
+    <t>Women’s Monobob</t>
+  </si>
+  <si>
+    <t>Men´s Skeleton</t>
   </si>
   <si>
     <t>Women´s Skeleton</t>
   </si>
   <si>
-    <t>4-man Bobsleigh</t>
-  </si>
-  <si>
-    <t>2-woman Bobsleigh</t>
-  </si>
-  <si>
-    <t>Men´s Skeleton</t>
-  </si>
-  <si>
-    <t>2-man Bobsleigh</t>
-  </si>
-  <si>
-    <t>Women’s Monobob</t>
-  </si>
-  <si>
     <t>Skeleton Mixed Team</t>
   </si>
   <si>
-    <t>Pyeong­chang</t>
-  </si>
-  <si>
-    <t>St. Moritz- Celerina</t>
-  </si>
-  <si>
-    <t>Lake Placid</t>
+    <t>Whistler</t>
+  </si>
+  <si>
+    <t>Cortina d'Ampezzo</t>
   </si>
 </sst>
 </file>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -528,7 +519,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -536,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -545,7 +536,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -553,16 +544,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -570,16 +561,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -587,16 +578,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -604,16 +595,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -624,13 +615,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -638,16 +629,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -658,13 +649,13 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -675,13 +666,13 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -689,16 +680,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -706,16 +697,67 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
-        <v>39</v>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
